--- a/PROCESSADO ERRO/Realocacao.xlsx
+++ b/PROCESSADO ERRO/Realocacao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorsantos\Desktop\DOCS\PROCESSADO ERRO\Analise de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diegomoreira\Desktop\DOCS2\PROCESSADO ERRO\Analise de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF698B1D-65F7-4B97-9C6E-8ECF35DA0D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD34C75E-1B23-4D57-936E-1C7FD73EB4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC0150D8-481A-4FEC-B4F2-D3B8DF6FF4E2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="418">
   <si>
     <t>Cont.se</t>
   </si>
@@ -1284,6 +1284,15 @@
   </si>
   <si>
     <t>Operações CORP</t>
+  </si>
+  <si>
+    <t>IPLMPI</t>
+  </si>
+  <si>
+    <t>GCDTCY</t>
+  </si>
+  <si>
+    <t>ONKRNY</t>
   </si>
 </sst>
 </file>
@@ -1696,11 +1705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18192F43-067A-4E47-A972-F8655B48F370}">
-  <dimension ref="A1:L492"/>
+  <dimension ref="A1:L497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I498" sqref="I498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13840,7 +13849,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
-        <f t="shared" ref="A450:A492" si="7">COUNTIF(C:C,C450)</f>
+        <f t="shared" ref="A450:A497" si="7">COUNTIF(C:C,C450)</f>
         <v>1</v>
       </c>
       <c r="B450" s="4">
@@ -14994,6 +15003,141 @@
       </c>
       <c r="H492" s="3">
         <v>21044861</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B493" s="4">
+        <v>45761</v>
+      </c>
+      <c r="C493" s="3">
+        <v>4513918</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H493" s="3">
+        <v>22797036</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B494" s="4">
+        <v>45761</v>
+      </c>
+      <c r="C494" s="3">
+        <v>59488</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H494" s="3">
+        <v>22786562</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B495" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H495" s="3">
+        <v>22846658</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B496" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H496" s="3">
+        <v>22846809</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B497" s="4">
+        <v>45771</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H497" s="3">
+        <v>22837948</v>
       </c>
     </row>
   </sheetData>
@@ -15004,6 +15148,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0C64AEBC6938045854C56BA4D8C77CF" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5f31b7a4337894972ec12da0ef30e818">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35be389f-dada-4a68-ae92-ea7661de5b6e" xmlns:ns3="d5d2fd33-ccbd-4040-be47-5df533512541" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e61b3e9a2651bfce898509c0f7f73a6c" ns2:_="" ns3:_="">
     <xsd:import namespace="35be389f-dada-4a68-ae92-ea7661de5b6e"/>
@@ -15180,7 +15330,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -15189,13 +15339,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84137B5F-BA2E-46E2-8954-A93F09AE8850}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECD20AC8-8F1B-4A5B-BEC1-3A2CE8F57D9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15214,19 +15367,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B1BE2F4-0564-489E-93AE-F1E3B4A35B2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84137B5F-BA2E-46E2-8954-A93F09AE8850}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>